--- a/spm/nirs10/NIRS10_reperespaces.xlsx
+++ b/spm/nirs10/NIRS10_reperespaces.xlsx
@@ -250,9 +250,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -265,6 +262,9 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,32 +278,386 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83128</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>109105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>52917</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>669060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>109106</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6179128" y="1087582"/>
+          <a:ext cx="585932" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>71006</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>105641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>656938</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>105642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3119006" y="1283277"/>
+          <a:ext cx="585932" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="lg" len="med"/>
+          <a:tailEnd type="none" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>67543</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>102177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>653475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>102178</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3115543" y="1478972"/>
+          <a:ext cx="585932" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="lg" len="med"/>
+          <a:tailEnd type="none" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>124693</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>710625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>124692</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1648693" y="1501486"/>
+          <a:ext cx="585932" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="lg" len="med"/>
+          <a:tailEnd type="none" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>112571</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>710045</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1636571" y="1498023"/>
+          <a:ext cx="597474" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="lg" len="med"/>
+          <a:tailEnd type="none" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>143741</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>117765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>729673</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>117766</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4715741" y="1494560"/>
+          <a:ext cx="585932" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>164523</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>734868</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88324</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4736523" y="1506682"/>
+          <a:ext cx="570345" cy="157597"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>117285</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>169240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>640773</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>164524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Flèche courbée vers la droite 15"/>
+        <xdr:cNvPr id="34" name="Flèche courbée vers la droite 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3259667" y="5831417"/>
-          <a:ext cx="603250" cy="1682750"/>
+          <a:off x="3165285" y="1346876"/>
+          <a:ext cx="523488" cy="1389398"/>
         </a:xfrm>
         <a:prstGeom prst="curvedRightArrow">
           <a:avLst>
             <a:gd name="adj1" fmla="val 0"/>
-            <a:gd name="adj2" fmla="val 21705"/>
-            <a:gd name="adj3" fmla="val 12719"/>
+            <a:gd name="adj2" fmla="val 19548"/>
+            <a:gd name="adj3" fmla="val 9848"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -313,6 +667,7 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:tailEnd type="none"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -348,26 +703,97 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>74086</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>105833</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>158752</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619991</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Flèche courbée vers la droite 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3325091" y="1506681"/>
+          <a:ext cx="342900" cy="1373332"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 19548"/>
+            <a:gd name="adj3" fmla="val 9848"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>325582</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>329045</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Connecteur droit avec flèche 17"/>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1582209" y="6588127"/>
-          <a:ext cx="1608666" cy="10583"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5580784" y="1325709"/>
+          <a:ext cx="161059" cy="3463"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -398,26 +824,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25401</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91787</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>131236</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>677719</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109105</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Connecteur droit avec flèche 19"/>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5359401" y="7175500"/>
-          <a:ext cx="1498599" cy="4236"/>
+        <a:xfrm>
+          <a:off x="8577696" y="4074968"/>
+          <a:ext cx="585932" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -444,6 +870,267 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>96982</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>682914</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582891" y="4287982"/>
+          <a:ext cx="585932" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102178</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>675409</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8588087" y="4303568"/>
+          <a:ext cx="573231" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>701387</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>718705</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9949296" y="3628159"/>
+          <a:ext cx="1541318" cy="450274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>718706</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>701386</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9966615" y="4078432"/>
+          <a:ext cx="1506680" cy="303068"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>77931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Arc 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="3844636"/>
+          <a:ext cx="580159" cy="242456"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10582065"/>
+            <a:gd name="adj2" fmla="val 2658598"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -736,12 +1423,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:S24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" customWidth="1"/>
     <col min="19" max="19" width="9.42578125" customWidth="1"/>
   </cols>
@@ -775,11 +1464,11 @@
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="2:19" ht="15" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -801,9 +1490,9 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="2:19" ht="15.75">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
         <v>3</v>
@@ -831,12 +1520,12 @@
         <v>5</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -853,16 +1542,16 @@
         <v>15</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -873,20 +1562,20 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="2:19" ht="15.75">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -897,28 +1586,28 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19" ht="15.75">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -929,24 +1618,24 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="2:19" ht="15.75">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -957,9 +1646,9 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="2:19" ht="15.75">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -979,9 +1668,9 @@
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="2:19" ht="15.75">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -995,17 +1684,17 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="15" t="s">
+      <c r="P11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" spans="2:19" ht="15.75">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -1025,12 +1714,12 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="2:19" ht="15.75">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1045,14 +1734,14 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="2:19" ht="15.75">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1067,14 +1756,14 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="2:19" ht="15.75">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1089,9 +1778,9 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="2:19" ht="15.75">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1111,9 +1800,9 @@
       <c r="S16" s="2"/>
     </row>
     <row r="17" spans="2:19" ht="15.75">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1128,7 +1817,7 @@
         <v>29</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="10"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1137,9 +1826,9 @@
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="2:19" ht="15.75">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1154,22 +1843,22 @@
         <v>15</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11" t="s">
+      <c r="O18" s="9"/>
+      <c r="P18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S18" s="11"/>
+      <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19" ht="15.75">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1184,51 +1873,51 @@
         <v>28</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
     </row>
     <row r="20" spans="2:19" ht="15.75">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
     </row>
     <row r="21" spans="2:19" ht="15.75">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1237,24 +1926,24 @@
       <c r="S21" s="2"/>
     </row>
     <row r="22" spans="2:19" ht="15.75">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6" t="s">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1263,39 +1952,39 @@
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="2:19" ht="15.75">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10" t="s">
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="10" t="s">
+      <c r="Q23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G24" s="4"/>
@@ -1304,15 +1993,15 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
